--- a/OriginTable/SoundsResource.xlsx
+++ b/OriginTable/SoundsResource.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
